--- a/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_machinery.xlsx
+++ b/teaching/traditional_assets/database/data/saudi_arabia/saudi_arabia_machinery.xlsx
@@ -591,25 +591,25 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.205</v>
+        <v>-0.278</v>
       </c>
       <c r="G2">
-        <v>0.06791467131040488</v>
+        <v>-0.1437206178643385</v>
       </c>
       <c r="H2">
-        <v>0.06791467131040488</v>
+        <v>-0.1437206178643385</v>
       </c>
       <c r="I2">
-        <v>-0.1652012198612281</v>
+        <v>0.06178643384822027</v>
       </c>
       <c r="J2">
-        <v>-0.1652012198612281</v>
+        <v>0.06178643384822027</v>
       </c>
       <c r="K2">
-        <v>-117.8</v>
+        <v>-75</v>
       </c>
       <c r="L2">
-        <v>-0.5128428384849805</v>
+        <v>-0.5036937541974479</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -633,73 +633,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>37.9</v>
+        <v>19</v>
       </c>
       <c r="V2">
-        <v>0.2693674484719261</v>
+        <v>0.1760889712696941</v>
       </c>
       <c r="W2">
-        <v>-0.5223946784922394</v>
+        <v>-0.8426966292134831</v>
       </c>
       <c r="X2">
-        <v>0.221603954228049</v>
+        <v>0.2041449860151529</v>
       </c>
       <c r="Y2">
-        <v>-0.7439986327202884</v>
+        <v>-1.046841615228636</v>
       </c>
       <c r="Z2">
-        <v>0.4001333654710809</v>
+        <v>0.3786876907426246</v>
       </c>
       <c r="AA2">
-        <v>-0.06610252008300117</v>
+        <v>0.02339776195320447</v>
       </c>
       <c r="AB2">
-        <v>0.08722738485508097</v>
+        <v>0.07080228571312558</v>
       </c>
       <c r="AC2">
-        <v>-0.1533299049380821</v>
+        <v>-0.0474045237599211</v>
       </c>
       <c r="AD2">
-        <v>342.1</v>
+        <v>318.4</v>
       </c>
       <c r="AE2">
-        <v>0.6586010106204857</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>342.7586010106205</v>
+        <v>318.4</v>
       </c>
       <c r="AG2">
-        <v>304.8586010106205</v>
+        <v>299.4</v>
       </c>
       <c r="AH2">
-        <v>0.708971978767404</v>
+        <v>0.7468918601923529</v>
       </c>
       <c r="AI2">
-        <v>0.7819137122447295</v>
+        <v>0.8844444444444444</v>
       </c>
       <c r="AJ2">
-        <v>0.6842166222784998</v>
+        <v>0.7350847041492757</v>
       </c>
       <c r="AK2">
-        <v>0.7612737003057537</v>
+        <v>0.8780058651026392</v>
       </c>
       <c r="AL2">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>7.6</v>
+        <v>-2.17</v>
       </c>
       <c r="AN2">
-        <v>-13.73068432671082</v>
-      </c>
-      <c r="AO2">
-        <v>-5.065789473684211</v>
+        <v>-20.81045751633987</v>
       </c>
       <c r="AP2">
-        <v>-12.235946257701</v>
+        <v>-19.56862745098039</v>
       </c>
       <c r="AQ2">
-        <v>-5.065789473684211</v>
+        <v>-4.239631336405529</v>
       </c>
     </row>
     <row r="3">
@@ -719,25 +716,25 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.205</v>
+        <v>-0.278</v>
       </c>
       <c r="G3">
-        <v>0.06791467131040488</v>
+        <v>-0.1437206178643385</v>
       </c>
       <c r="H3">
-        <v>0.06791467131040488</v>
+        <v>-0.1437206178643385</v>
       </c>
       <c r="I3">
-        <v>-0.1652012198612281</v>
+        <v>0.06178643384822027</v>
       </c>
       <c r="J3">
-        <v>-0.1652012198612281</v>
+        <v>0.06178643384822027</v>
       </c>
       <c r="K3">
-        <v>-117.8</v>
+        <v>-75</v>
       </c>
       <c r="L3">
-        <v>-0.5128428384849805</v>
+        <v>-0.5036937541974479</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,73 +758,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>37.9</v>
+        <v>19</v>
       </c>
       <c r="V3">
-        <v>0.2693674484719261</v>
+        <v>0.1760889712696941</v>
       </c>
       <c r="W3">
-        <v>-0.5223946784922394</v>
+        <v>-0.8426966292134831</v>
       </c>
       <c r="X3">
-        <v>0.221603954228049</v>
+        <v>0.2041449860151529</v>
       </c>
       <c r="Y3">
-        <v>-0.7439986327202884</v>
+        <v>-1.046841615228636</v>
       </c>
       <c r="Z3">
-        <v>0.4001333654710809</v>
+        <v>0.3786876907426246</v>
       </c>
       <c r="AA3">
-        <v>-0.06610252008300117</v>
+        <v>0.02339776195320447</v>
       </c>
       <c r="AB3">
-        <v>0.08722738485508097</v>
+        <v>0.07080228571312558</v>
       </c>
       <c r="AC3">
-        <v>-0.1533299049380821</v>
+        <v>-0.0474045237599211</v>
       </c>
       <c r="AD3">
-        <v>342.1</v>
+        <v>318.4</v>
       </c>
       <c r="AE3">
-        <v>0.6586010106204857</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>342.7586010106205</v>
+        <v>318.4</v>
       </c>
       <c r="AG3">
-        <v>304.8586010106205</v>
+        <v>299.4</v>
       </c>
       <c r="AH3">
-        <v>0.708971978767404</v>
+        <v>0.7468918601923529</v>
       </c>
       <c r="AI3">
-        <v>0.7819137122447295</v>
+        <v>0.8844444444444444</v>
       </c>
       <c r="AJ3">
-        <v>0.6842166222784998</v>
+        <v>0.7350847041492757</v>
       </c>
       <c r="AK3">
-        <v>0.7612737003057537</v>
+        <v>0.8780058651026392</v>
       </c>
       <c r="AL3">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>7.6</v>
+        <v>-2.17</v>
       </c>
       <c r="AN3">
-        <v>-13.73068432671082</v>
-      </c>
-      <c r="AO3">
-        <v>-5.065789473684211</v>
+        <v>-20.81045751633987</v>
       </c>
       <c r="AP3">
-        <v>-12.235946257701</v>
+        <v>-19.56862745098039</v>
       </c>
       <c r="AQ3">
-        <v>-5.065789473684211</v>
+        <v>-4.239631336405529</v>
       </c>
     </row>
   </sheetData>
